--- a/calibration/lux_volt.xlsx
+++ b/calibration/lux_volt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>lux</t>
   </si>
@@ -29,12 +29,51 @@
   <si>
     <t>diode, V</t>
   </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>&lt;y&gt;</t>
+  </si>
+  <si>
+    <t>(y-&lt;y&gt;)^2</t>
+  </si>
+  <si>
+    <t>S(y-&lt;y&gt;)^2</t>
+  </si>
+  <si>
+    <t>(y-yi)^2</t>
+  </si>
+  <si>
+    <t>S1(y-yi)^2</t>
+  </si>
+  <si>
+    <t>S2(y-yi)^2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,16 +82,43 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,15 +126,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Вывод" xfId="2" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -78,6 +165,415 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>lux_v!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.8899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>lux_v!$C$16:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>appr</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>lux_v!$B$35:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.8899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>lux_v!$C$35:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.4818893259110375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.936493260012654</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.296614598455378</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.742586002372491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.121300428012027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.658457550226835</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.38701146047606</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.855368234250221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>appr2</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>lux_v!$E$35:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.8899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>lux_v!$F$35:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-5.4347972688190254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.253864523601834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.050514958312895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.296270032619496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.438541638345903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.450566354356063</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.368247745981989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85.800717142463128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="63499648"/>
+        <c:axId val="63498112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="63499648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63498112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="63498112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63499648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>61910</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,9 +875,11 @@
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,8 +892,17 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -408,8 +915,20 @@
       <c r="D2">
         <v>4.8899999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>AVERAGE(C16:C26)</f>
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <f>(C16-$G$2)^2</f>
+        <v>1600</v>
+      </c>
+      <c r="J2">
+        <f>1-G7/G4</f>
+        <v>0.9989876600420442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -422,8 +941,15 @@
       <c r="D3">
         <v>3.76</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <f>(C17-$G$2)^2</f>
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -436,8 +962,19 @@
       <c r="D4">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>SUM(H2:H12)</f>
+        <v>8852</v>
+      </c>
+      <c r="H4">
+        <f>(C18-$G$2)^2</f>
+        <v>784</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -450,8 +987,16 @@
       <c r="D5">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f>(C19-$G$2)^2</f>
+        <v>400</v>
+      </c>
+      <c r="J5">
+        <f>1-G10/G4</f>
+        <v>0.99624412708808063</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>28</v>
       </c>
@@ -464,8 +1009,15 @@
       <c r="D6">
         <v>2.5099999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <f>(C20-$G$2)^2</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>37</v>
       </c>
@@ -478,8 +1030,16 @@
       <c r="D7">
         <v>2.2599999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f>SUM(C48:C58)</f>
+        <v>8.961233307824747</v>
+      </c>
+      <c r="H7">
+        <f>(C21-$G$2)^2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>47</v>
       </c>
@@ -492,8 +1052,12 @@
       <c r="D8">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f>(C22-$G$2)^2</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>57</v>
       </c>
@@ -506,8 +1070,15 @@
       <c r="D9">
         <v>1.89</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <f>(C23-$G$2)^2</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>68</v>
       </c>
@@ -520,8 +1091,16 @@
       <c r="D10">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f>SUM(F48:F58)</f>
+        <v>33.246987016310399</v>
+      </c>
+      <c r="H10">
+        <f>(C24-$G$2)^2</f>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>79</v>
       </c>
@@ -534,8 +1113,12 @@
       <c r="D11">
         <v>1.64</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f>(C25-$G$2)^2</f>
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>86</v>
       </c>
@@ -548,9 +1131,471 @@
       <c r="D12">
         <v>1.58</v>
       </c>
+      <c r="H12">
+        <f>(C26-$G$2)^2</f>
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3.76</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>3.21</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>3.21</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2.81</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C20">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>2.06</v>
+      </c>
+      <c r="E20">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2.06</v>
+      </c>
+      <c r="C22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1.89</v>
+      </c>
+      <c r="C23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1.75</v>
+      </c>
+      <c r="C24">
+        <v>68</v>
+      </c>
+      <c r="D24">
+        <v>1.64</v>
+      </c>
+      <c r="E24">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1.64</v>
+      </c>
+      <c r="C25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1.58</v>
+      </c>
+      <c r="C26">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2">
+        <f>(B17*C17*(B24-B20)+B20*C20*(B17-B24)+B24*C24*(B20-B17))/(C17*(B20-B24)+C20*(B24-B17)+C24*(B17-B20))</f>
+        <v>-0.74016826923076928</v>
+      </c>
+      <c r="D29">
+        <f>(D17*E17*(D24-D20)+D20*E20*(D17-D24)+D24*E24*(D20-D17))/(E17*(D20-D24)+E20*(D24-D17)+E24*(D17-D20))</f>
+        <v>-0.59570135746606312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2">
+        <f>-(B17+B29)*B31+B29*C17+B17*C17</f>
+        <v>94.064854729105022</v>
+      </c>
+      <c r="D30">
+        <f>-(D17+D29)*D31+D29*E17+D17*E17</f>
+        <v>116.50781597428397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2">
+        <f>B29*(C17-C20)/(B17-B20)+(B17*C17-B20*C20)/(B17-B20)</f>
+        <v>-25.14903846153846</v>
+      </c>
+      <c r="D31">
+        <f>D29*(E17-E20)/(D17-D20)+(D17*E17-D20*E20)/(D17-D20)</f>
+        <v>-32.56561085972853</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C35">
+        <f>$B$30/(B35+$B$29)+$B$31</f>
+        <v>-2.4818893259110375</v>
+      </c>
+      <c r="E35">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F35">
+        <f>$D$30/(E35+$D$29)+$D$31</f>
+        <v>-5.4347972688190254</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>3.76</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C45" si="0">$B$30/(B36+$B$29)+$B$31</f>
+        <v>6.0000000000000036</v>
+      </c>
+      <c r="E36">
+        <v>3.76</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:F45" si="1">$D$30/(E36+$D$29)+$D$31</f>
+        <v>4.253864523601834</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>3.21</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>12.936493260012654</v>
+      </c>
+      <c r="E37">
+        <v>3.21</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2.81</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>20.296614598455378</v>
+      </c>
+      <c r="E38">
+        <v>2.81</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>20.050514958312895</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>28.000000000000007</v>
+      </c>
+      <c r="E39">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>28.296270032619496</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>36.742586002372491</v>
+      </c>
+      <c r="E40">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>37.438541638345903</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2.06</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>46.121300428012027</v>
+      </c>
+      <c r="E41">
+        <v>2.06</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>47.000000000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>1.89</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>56.658457550226835</v>
+      </c>
+      <c r="E42">
+        <v>1.89</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>57.450566354356063</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1.75</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E43">
+        <v>1.75</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>68.368247745981989</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>1.64</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>79.38701146047606</v>
+      </c>
+      <c r="E44">
+        <v>1.64</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>79.000000000000057</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1.58</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>86.855368234250221</v>
+      </c>
+      <c r="E45">
+        <v>1.58</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>85.800717142463128</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f>(C16-C35)^2</f>
+        <v>6.1597746260711439</v>
+      </c>
+      <c r="F48">
+        <f>(C16-F35)^2</f>
+        <v>29.537021353162736</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:F58" si="2">(C17-F36)^2</f>
+        <v>3.0489891019362503</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" ref="C49:C58" si="3">(C18-C37)^2</f>
+        <v>0.87701962604912775</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="3"/>
+        <v>8.7980220016844912E-2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>2.5517610133535631E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>8.7775932228357376E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="3"/>
+        <v>6.626196617457529E-2</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>0.19231876856310887</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f t="shared" si="3"/>
+        <v>0.77211293781184631</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" si="3"/>
+        <v>0.1166512449970549</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>0.20301003967771331</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>0.1356064024208157</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f t="shared" si="3"/>
+        <v>0.14977787053981309</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f t="shared" si="3"/>
+        <v>0.73165481616434158</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>3.9713657308061187E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
